--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -219,53 +219,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -364,53 +364,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -509,53 +509,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -645,53 +645,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1188,53 +1188,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1333,53 +1333,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1478,53 +1478,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1617,53 +1617,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2160,53 +2160,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2305,53 +2305,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2450,53 +2450,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2589,53 +2589,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2500</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
@@ -5017,7 +5017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>

--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -19,18 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Adiacenza</t>
-  </si>
-  <si>
-    <t>demoTempoMedio</t>
-  </si>
-  <si>
-    <t>demoTempoMigliore</t>
-  </si>
-  <si>
-    <t>demoTempoPeggiore</t>
   </si>
   <si>
     <t>Incidenza</t>
@@ -39,10 +30,16 @@
     <t>Matrice</t>
   </si>
   <si>
-    <t>demoTempoMigliore (Unica colonna)</t>
+    <t>demoTempoPeggiore (1-Heap)</t>
   </si>
   <si>
-    <t>demoTempoPeggiore (Numero di nodi-colonne)</t>
+    <t>demoTempoMedio (10-Heap)</t>
+  </si>
+  <si>
+    <t>demoTempoMigliore (25-Heap)</t>
+  </si>
+  <si>
+    <t>demoTempoMedio  (10-Heap)</t>
   </si>
 </sst>
 </file>
@@ -86,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -94,6 +91,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -146,7 +147,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Caso medio</a:t>
+              <a:t>10-Heap</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -191,7 +192,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Adiacenza</c:v>
+            <c:v>Lista Adiacenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -219,10 +220,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -258,25 +259,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$5:$P$5</c:f>
+              <c:f>Foglio1!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -299,28 +291,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.158</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.23799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.47</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,7 +311,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D54A-4BDF-9222-E3DEF99826EA}"/>
+              <c16:uniqueId val="{00000000-C900-41E8-993F-E3992A0DA9AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -336,7 +319,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Incidenza</c:v>
+            <c:v>Liste Incidenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -364,10 +347,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -403,25 +386,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$10:$P$10</c:f>
+              <c:f>Foglio1!$B$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -435,37 +409,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2000000000000003E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.247</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.46800000000000003</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,7 +438,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D54A-4BDF-9222-E3DEF99826EA}"/>
+              <c16:uniqueId val="{00000001-C900-41E8-993F-E3992A0DA9AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -481,7 +446,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Matrice</c:v>
+            <c:v>Matrice Adiacenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -509,10 +474,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -548,22 +513,13 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$15:$N$15</c:f>
+              <c:f>Foglio1!$B$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -580,28 +536,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.244</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9320000000000004</c:v>
+                  <c:v>1.5620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.702999999999999</c:v>
+                  <c:v>3.234</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.115000000000002</c:v>
+                  <c:v>7.4370000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,7 +565,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D54A-4BDF-9222-E3DEF99826EA}"/>
+              <c16:uniqueId val="{00000002-C900-41E8-993F-E3992A0DA9AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -643,66 +599,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$2:$P$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -738,15 +640,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>99990000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>224985000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>624975000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2499950000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,7 +647,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D54A-4BDF-9222-E3DEF99826EA}"/>
+              <c16:uniqueId val="{00000003-C900-41E8-993F-E3992A0DA9AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -768,11 +661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="294107120"/>
-        <c:axId val="294116272"/>
+        <c:axId val="1557777568"/>
+        <c:axId val="1557776736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="294107120"/>
+        <c:axId val="1557777568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +692,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Numero Nodi</a:t>
+                  <a:t>Numero nodi</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -871,7 +764,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294116272"/>
+        <c:crossAx val="1557776736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -879,10 +772,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294116272"/>
+        <c:axId val="1557776736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -921,13 +814,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Tempo</a:t>
+                  <a:t>Tempo (secondi)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> (secondi)</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -992,7 +880,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294107120"/>
+        <c:crossAx val="1557777568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,7 +1003,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Unica Colonna</a:t>
+              <a:t>1-Heap</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1160,7 +1048,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Adiacenza</c:v>
+            <c:v>Liste Adiacenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1188,10 +1076,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1227,25 +1115,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$6:$P$6</c:f>
+              <c:f>Foglio1!$B$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1262,34 +1141,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>1.0620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>7.0309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>32.234000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.317</c:v>
+                  <c:v>142.72999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,7 +1167,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-31FD-4D86-BD3B-F2E7ECF91A09}"/>
+              <c16:uniqueId val="{00000000-0B02-4BCF-BC84-5B67D48C4D1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1305,7 +1175,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Incidenza</c:v>
+            <c:v>Liste Incidenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1333,10 +1203,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1372,25 +1242,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$11:$P$11</c:f>
+              <c:f>Foglio1!$B$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1404,37 +1265,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.32800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>1.0309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>7.0149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>34.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.6000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.36099999999999999</c:v>
+                  <c:v>152.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1294,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-31FD-4D86-BD3B-F2E7ECF91A09}"/>
+              <c16:uniqueId val="{00000001-0B02-4BCF-BC84-5B67D48C4D1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1450,7 +1302,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Matrice</c:v>
+            <c:v>Matrice Adiacenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1478,10 +1330,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1517,25 +1369,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$16:$N$16</c:f>
+              <c:f>Foglio1!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1546,34 +1389,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2E-3</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.78100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>5.7649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.215</c:v>
+                  <c:v>46.515999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.4550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.105</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43.454000000000001</c:v>
+                  <c:v>732.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,7 +1415,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-31FD-4D86-BD3B-F2E7ECF91A09}"/>
+              <c16:uniqueId val="{00000002-0B02-4BCF-BC84-5B67D48C4D1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1615,66 +1449,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$2:$P$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1710,15 +1490,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>99990000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>224985000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>624975000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2499950000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1497,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-31FD-4D86-BD3B-F2E7ECF91A09}"/>
+              <c16:uniqueId val="{00000003-0B02-4BCF-BC84-5B67D48C4D1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1740,11 +1511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="294107120"/>
-        <c:axId val="294116272"/>
+        <c:axId val="1557777568"/>
+        <c:axId val="1557776736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="294107120"/>
+        <c:axId val="1557777568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1542,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Numero Nodi</a:t>
+                  <a:t>Numero nodi</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1843,7 +1614,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294116272"/>
+        <c:crossAx val="1557776736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1851,10 +1622,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294116272"/>
+        <c:axId val="1557776736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
+          <c:max val="800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1893,13 +1664,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Tempo</a:t>
+                  <a:t>Tempo (secondi)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> (secondi)</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1964,7 +1730,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294107120"/>
+        <c:crossAx val="1557777568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2087,7 +1853,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Colonne quanto nodi</a:t>
+              <a:t>25-Heap</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2132,7 +1898,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Adiacenza</c:v>
+            <c:v>Liste Adiacenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2160,10 +1926,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2199,25 +1965,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$7:$P$7</c:f>
+              <c:f>Foglio1!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2237,31 +1994,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.16600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.33200000000000002</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +2017,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AAD0-4BC6-BD08-3A259455CF9C}"/>
+              <c16:uniqueId val="{00000000-AD84-4E06-897A-253A03C393CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2277,7 +2025,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Incidenza</c:v>
+            <c:v>Liste Incidenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2305,10 +2053,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2344,25 +2092,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$12:$P$12</c:f>
+              <c:f>Foglio1!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2379,34 +2118,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.7999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,7 +2144,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AAD0-4BC6-BD08-3A259455CF9C}"/>
+              <c16:uniqueId val="{00000001-AD84-4E06-897A-253A03C393CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2422,7 +2152,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Matrice</c:v>
+            <c:v>Matrice Adiacenza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2450,10 +2180,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2489,25 +2219,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$17:$N$17</c:f>
+              <c:f>Foglio1!$B$16:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2524,28 +2245,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19400000000000001</c:v>
+                  <c:v>0.29599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.859</c:v>
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2649999999999997</c:v>
+                  <c:v>1.8280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.622</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44.013000000000005</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,7 +2271,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AAD0-4BC6-BD08-3A259455CF9C}"/>
+              <c16:uniqueId val="{00000002-AD84-4E06-897A-253A03C393CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2587,66 +2305,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$P$3</c:f>
+              <c:f>Foglio1!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$2:$P$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2682,15 +2346,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>99990000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>224985000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>624975000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2499950000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2353,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AAD0-4BC6-BD08-3A259455CF9C}"/>
+              <c16:uniqueId val="{00000003-AD84-4E06-897A-253A03C393CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2712,11 +2367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="294107120"/>
-        <c:axId val="294116272"/>
+        <c:axId val="1557777568"/>
+        <c:axId val="1557776736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="294107120"/>
+        <c:axId val="1557777568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2398,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Numero Nodi</a:t>
+                  <a:t>Numero nodi</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2815,7 +2470,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294116272"/>
+        <c:crossAx val="1557776736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2823,10 +2478,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294116272"/>
+        <c:axId val="1557776736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2865,13 +2520,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Tempo</a:t>
+                  <a:t>Tempo (secondi)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> (secondi)</a:t>
-                </a:r>
-                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2936,7 +2586,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294107120"/>
+        <c:crossAx val="1557777568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4658,19 +4308,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2871108</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvPr id="5" name="Grafico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4687,20 +4337,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>401410</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvPr id="6" name="Grafico 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4720,19 +4370,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>415020</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112941</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvPr id="7" name="Grafico 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5018,14 +4668,16 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="N2" sqref="N2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5096,18 +4748,9 @@
         <f t="shared" si="0"/>
         <v>99990000</v>
       </c>
-      <c r="N2" s="1">
-        <f t="shared" si="0"/>
-        <v>224985000</v>
-      </c>
-      <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>624975000</v>
-      </c>
-      <c r="P2" s="1">
-        <f t="shared" si="0"/>
-        <v>2499950000</v>
-      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -5147,15 +4790,9 @@
       <c r="M3" s="1">
         <v>10000</v>
       </c>
-      <c r="N3" s="1">
-        <v>15000</v>
-      </c>
-      <c r="O3" s="1">
-        <v>25000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>50000</v>
-      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5179,57 +4816,51 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.158</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.47</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -5247,35 +4878,29 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.317</v>
-      </c>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5300,32 +4925,26 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J7" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="K7" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>7.0309999999999997</v>
       </c>
       <c r="L7" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>32.234000000000002</v>
       </c>
       <c r="M7" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.33200000000000002</v>
-      </c>
+        <v>142.72999999999999</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5347,7 +4966,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5367,7 +4986,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -5382,42 +5001,36 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="L10" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M10" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.247</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.46800000000000003</v>
-      </c>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -5435,35 +5048,29 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L11" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M11" s="2">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="N11" s="2">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0.36099999999999999</v>
-      </c>
+        <v>3.1E-2</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -5482,38 +5089,32 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G12" s="2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="J12" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="K12" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0149999999999997</v>
       </c>
       <c r="L12" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>34.125</v>
       </c>
       <c r="M12" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="N12" s="2">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.34300000000000003</v>
-      </c>
+        <v>152.22</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -5535,7 +5136,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5555,7 +5156,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -5573,35 +5174,33 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>0.21</v>
+        <v>6.2E-2</v>
       </c>
       <c r="K15" s="2">
-        <v>1.244</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>4.9320000000000004</v>
+        <v>3.234</v>
       </c>
       <c r="M15" s="2">
-        <v>19.702999999999999</v>
-      </c>
-      <c r="N15" s="2">
-        <v>45.115000000000002</v>
-      </c>
+        <v>7.4370000000000003</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -5619,35 +5218,33 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0.215</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="K16" s="2">
-        <v>1.1919999999999999</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="L16" s="2">
-        <v>5.4550000000000001</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="M16" s="2">
-        <v>19.105</v>
-      </c>
-      <c r="N16" s="2">
-        <v>43.454000000000001</v>
-      </c>
+        <v>3.65</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -5659,35 +5256,29 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>2E-3</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>0.01</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="I17" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>5.7649999999999997</v>
       </c>
       <c r="J17" s="2">
-        <v>0.19400000000000001</v>
+        <v>46.515999999999998</v>
       </c>
       <c r="K17" s="2">
-        <v>1.859</v>
-      </c>
-      <c r="L17" s="2">
-        <v>7.2649999999999997</v>
-      </c>
-      <c r="M17" s="2">
-        <v>23.622</v>
-      </c>
-      <c r="N17" s="2">
-        <v>44.013000000000005</v>
-      </c>
+        <v>732.55</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>

--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -4313,10 +4313,10 @@
       <xdr:rowOff>23131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4337,16 +4337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>401410</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>4082</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>353784</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4369,16 +4369,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>81644</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>415020</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>112941</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>126549</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4668,7 +4668,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P3"/>
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4709,7 +4709,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:P2" si="0">(D3^2)-D3</f>
+        <f t="shared" ref="D2:M2" si="0">(D3^2)-D3</f>
         <v>90</v>
       </c>
       <c r="E2" s="1">

--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -4667,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -83,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -91,10 +91,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -291,19 +287,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,7 +405,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -542,22 +538,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>0.109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5620000000000001</c:v>
+                  <c:v>3.5310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.234</c:v>
+                  <c:v>10.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4370000000000003</c:v>
+                  <c:v>37.094000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,7 +771,7 @@
         <c:axId val="1557776736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1141,25 +1137,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0620000000000001</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0309999999999997</c:v>
+                  <c:v>6.0149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.234000000000002</c:v>
+                  <c:v>26.530999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142.72999999999999</c:v>
+                  <c:v>119.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,28 +1261,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32800000000000001</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0309999999999999</c:v>
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0149999999999997</c:v>
+                  <c:v>6.109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.125</c:v>
+                  <c:v>26.530999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>152.22</c:v>
+                  <c:v>124.845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,16 +1394,16 @@
                   <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78100000000000003</c:v>
+                  <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7649999999999997</c:v>
+                  <c:v>7.234</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.515999999999998</c:v>
+                  <c:v>48.484000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>732.55</c:v>
+                  <c:v>765.19600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1997,19 +1993,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,10 +2129,10 @@
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,22 +2244,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29599999999999999</c:v>
+                  <c:v>0.499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90600000000000003</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8280000000000001</c:v>
+                  <c:v>19.577999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.65</c:v>
+                  <c:v>53.563000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,7 +2477,7 @@
         <c:axId val="1557776736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4667,17 +4663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4818,41 +4815,41 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1.4999999999999999E-2</v>
+      <c r="L5" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3.1E-2</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -4884,19 +4881,19 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>3.1E-2</v>
       </c>
       <c r="L6" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="M6" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -4922,25 +4919,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I7" s="2">
-        <v>0.25</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>1.0620000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="K7" s="2">
-        <v>7.0309999999999997</v>
+        <v>6.0149999999999997</v>
       </c>
       <c r="L7" s="2">
-        <v>32.234000000000002</v>
+        <v>26.530999999999999</v>
       </c>
       <c r="M7" s="2">
-        <v>142.72999999999999</v>
+        <v>119.36</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -5001,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -5063,10 +5060,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L11" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="M11" s="2">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -5089,28 +5086,28 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
       <c r="H12" s="2">
-        <v>6.2E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I12" s="2">
-        <v>0.32800000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="J12" s="2">
-        <v>1.0309999999999999</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="K12" s="2">
-        <v>7.0149999999999997</v>
+        <v>6.109</v>
       </c>
       <c r="L12" s="2">
-        <v>34.125</v>
+        <v>26.530999999999999</v>
       </c>
       <c r="M12" s="2">
-        <v>152.22</v>
+        <v>124.845</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -5177,22 +5174,22 @@
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>3.1E-2</v>
+        <v>0.109</v>
       </c>
       <c r="J15" s="2">
-        <v>6.2E-2</v>
+        <v>0.39</v>
       </c>
       <c r="K15" s="2">
-        <v>1.5620000000000001</v>
+        <v>3.5310000000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>3.234</v>
+        <v>10.875</v>
       </c>
       <c r="M15" s="2">
-        <v>7.4370000000000003</v>
+        <v>37.094000000000001</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -5221,22 +5218,22 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="J16" s="2">
-        <v>0.29599999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="K16" s="2">
-        <v>0.90600000000000003</v>
+        <v>5.5</v>
       </c>
       <c r="L16" s="2">
-        <v>1.8280000000000001</v>
+        <v>19.577999999999999</v>
       </c>
       <c r="M16" s="2">
-        <v>3.65</v>
+        <v>53.563000000000002</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -5265,16 +5262,16 @@
         <v>6.2E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>0.78100000000000003</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="I17" s="2">
-        <v>5.7649999999999997</v>
+        <v>7.234</v>
       </c>
       <c r="J17" s="2">
-        <v>46.515999999999998</v>
+        <v>48.484000000000002</v>
       </c>
       <c r="K17" s="2">
-        <v>732.55</v>
+        <v>765.19600000000003</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>

--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,7 +144,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>10-Heap</a:t>
+              <a:t>5-Heap</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -216,7 +217,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
+              <c:f>Foglio1!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -224,36 +225,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -261,45 +259,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$5:$M$5</c:f>
+              <c:f>Foglio1!$B$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.84E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.12759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.0400000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>2.4619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.4621999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>69.150199999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>73.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,262 +307,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Liste Incidenza</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$10:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C900-41E8-993F-E3992A0DA9AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Matrice Adiacenza</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$15:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.109</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5310000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.875</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37.094000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C900-41E8-993F-E3992A0DA9AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:v>O</c:v>
           </c:tx>
@@ -597,44 +338,41 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$2:$M$2</c:f>
+              <c:f>Foglio1!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2450</c:v>
+                  <c:v>62250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5550</c:v>
+                  <c:v>249500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9900</c:v>
+                  <c:v>561750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62250</c:v>
+                  <c:v>999000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>249500</c:v>
+                  <c:v>6247500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>999000</c:v>
+                  <c:v>24995000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6247500</c:v>
+                  <c:v>56242500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24995000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>99990000</c:v>
                 </c:pt>
               </c:numCache>
@@ -999,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>1-Heap</a:t>
+              <a:t>n-Heap</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1072,7 +810,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
+              <c:f>Foglio1!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1080,36 +818,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1117,45 +852,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$7:$M$7</c:f>
+              <c:f>Foglio1!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04</c:v>
+                  <c:v>4.1399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26500000000000001</c:v>
+                  <c:v>27.89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89</c:v>
+                  <c:v>116.985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0149999999999997</c:v>
+                  <c:v>281.315</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.530999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>119.36</c:v>
+                  <c:v>513.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,256 +900,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Liste Incidenza</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$12:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.109</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26.530999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>124.845</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0B02-4BCF-BC84-5B67D48C4D1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Matrice Adiacenza</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.234</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.484000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>765.19600000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0B02-4BCF-BC84-5B67D48C4D1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:v>O</c:v>
           </c:tx>
@@ -1447,44 +931,41 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$2:$M$2</c:f>
+              <c:f>Foglio1!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2450</c:v>
+                  <c:v>62250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5550</c:v>
+                  <c:v>249500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9900</c:v>
+                  <c:v>561750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62250</c:v>
+                  <c:v>999000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>249500</c:v>
+                  <c:v>6247500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>999000</c:v>
+                  <c:v>24995000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6247500</c:v>
+                  <c:v>56242500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24995000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>99990000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1849,7 +1330,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>25-Heap</a:t>
+              <a:t>1-Heap</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1922,44 +1403,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$B$4:$M$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1967,10 +1452,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$6:$M$6</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$B$7:$M$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$B$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1981,31 +1473,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.2199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.12E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>4.02E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>9.3400000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.2999999999999999E-2</c:v>
+                  <c:v>0.13040000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,262 +1507,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Liste Incidenza</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD84-4E06-897A-253A03C393CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Matrice Adiacenza</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$B$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$16:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.577999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53.563000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AD84-4E06-897A-253A03C393CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:v>O</c:v>
           </c:tx>
@@ -2301,47 +1536,94 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>250</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>500</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>750</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2500</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>5000</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>7500</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>10000</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$2:$M$2</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$B$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2450</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5550</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9900</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62250</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>249500</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>999000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6247500</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24995000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99990000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,13 +3587,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>23131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4335,13 +3617,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>108855</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>353784</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4367,13 +3649,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>126549</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4661,17 +3943,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
@@ -4699,209 +3982,209 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
+        <f>B4</f>
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>(C3^2)-C3</f>
-        <v>20</v>
+        <f t="shared" ref="C2:L2" si="0">C4</f>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:M2" si="0">(D3^2)-D3</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" si="0"/>
-        <v>2450</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>5550</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>750</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>62250</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>249500</v>
+        <v>2500</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>999000</v>
+        <v>5000</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>6247500</v>
+        <v>7500</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>24995000</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" si="0"/>
-        <v>99990000</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+        <v>10000</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2">
-        <v>75</v>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(C4^2)-C4</f>
+        <v>2450</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:L3" si="1">(D4^2)-D4</f>
+        <v>9900</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="1"/>
+        <v>62250</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="1"/>
+        <v>249500</v>
       </c>
       <c r="G3" s="1">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>561750</v>
       </c>
       <c r="H3" s="1">
-        <v>250</v>
+        <f t="shared" si="1"/>
+        <v>999000</v>
       </c>
       <c r="I3" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>6247500</v>
       </c>
       <c r="J3" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>24995000</v>
       </c>
       <c r="K3" s="1">
-        <v>2500</v>
+        <f t="shared" si="1"/>
+        <v>56242500</v>
       </c>
       <c r="L3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>99990000</v>
+      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>250</v>
+      </c>
+      <c r="F4" s="2">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1">
+        <v>750</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7500</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3.1E-2</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>9.0400000000000008E-2</v>
       </c>
       <c r="I6" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>2.4619999999999997</v>
       </c>
       <c r="J6" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>2.4621999999999997</v>
       </c>
       <c r="K6" s="2">
-        <v>3.1E-2</v>
+        <v>69.150199999999998</v>
       </c>
       <c r="L6" s="2">
-        <v>6.2E-2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>9.2999999999999999E-2</v>
-      </c>
+        <v>73.09</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -4913,58 +4196,78 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1.2199999999999999E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G7" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.04</v>
+        <v>2.12E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>0.26500000000000001</v>
+        <v>4.02E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>0.89</v>
+        <v>6.2E-2</v>
       </c>
       <c r="K7" s="2">
-        <v>6.0149999999999997</v>
+        <v>9.3400000000000011E-2</v>
       </c>
       <c r="L7" s="2">
-        <v>26.530999999999999</v>
-      </c>
-      <c r="M7" s="2">
-        <v>119.36</v>
-      </c>
+        <v>0.13040000000000002</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="I8" s="2">
+        <v>27.89</v>
+      </c>
+      <c r="J8" s="2">
+        <v>116.985</v>
+      </c>
+      <c r="K8" s="2">
+        <v>281.315</v>
+      </c>
+      <c r="L8" s="2">
+        <v>513.96</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4982,52 +4285,28 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -5060,18 +4339,16 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L11" s="2">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="M11" s="2">
-        <v>6.2E-2</v>
-      </c>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -5089,57 +4366,77 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="L12" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I12" s="2">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="K12" s="2">
-        <v>6.109</v>
-      </c>
-      <c r="L12" s="2">
-        <v>26.530999999999999</v>
-      </c>
-      <c r="M12" s="2">
-        <v>124.845</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6.109</v>
+      </c>
+      <c r="L13" s="2">
+        <v>26.530999999999999</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -5152,52 +4449,28 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.109</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="K15" s="2">
-        <v>3.5310000000000001</v>
-      </c>
-      <c r="L15" s="2">
-        <v>10.875</v>
-      </c>
-      <c r="M15" s="2">
-        <v>37.094000000000001</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -5218,30 +4491,28 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I16" s="2">
-        <v>0.20300000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="J16" s="2">
-        <v>0.499</v>
+        <v>0.39</v>
       </c>
       <c r="K16" s="2">
-        <v>5.5</v>
+        <v>3.5310000000000001</v>
       </c>
       <c r="L16" s="2">
-        <v>19.577999999999999</v>
-      </c>
-      <c r="M16" s="2">
-        <v>53.563000000000002</v>
-      </c>
+        <v>10.875</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -5253,49 +4524,312 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0.76500000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>7.234</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="J17" s="2">
-        <v>48.484000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="K17" s="2">
-        <v>765.19600000000003</v>
-      </c>
-      <c r="L17" s="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>19.577999999999999</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7.234</v>
+      </c>
+      <c r="J18" s="2">
+        <v>48.484000000000002</v>
+      </c>
+      <c r="K18" s="2">
+        <v>765.19600000000003</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J63">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K63">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L63">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I64">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J64">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.109</v>
+      </c>
+      <c r="L64">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H65">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I65">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J65">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.109</v>
+      </c>
+      <c r="L65">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J66">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K66">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L66">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H67">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I67">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J67">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K67">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L67">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f>(B63+B64+B65+B66+B67)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:L68" si="2">(C63+C64+C65+C66+C67)/5</f>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>2.12E-2</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>4.02E-2</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>9.3400000000000011E-2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="2"/>
+        <v>0.13040000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,12 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Adiacenza</t>
+    <t>casoMedio (Grafo Random)</t>
   </si>
   <si>
-    <t>demoTempoMedio (10-Heap)</t>
+    <t>casoMigliore (1-Heap)</t>
+  </si>
+  <si>
+    <t>casoPeggiore((n-2)-Heap)</t>
+  </si>
+  <si>
+    <t>Medio e Migliore</t>
+  </si>
+  <si>
+    <t>(Medio e migliore)Quadrato</t>
+  </si>
+  <si>
+    <t>Peggiore</t>
+  </si>
+  <si>
+    <t>(Peggiore)Quadrato</t>
   </si>
 </sst>
 </file>
@@ -69,12 +83,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -129,8 +146,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>n-Heap</a:t>
+              <a:t>Caso</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> peggiore</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -171,10 +193,113 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Liste Adiacenza</c:v>
+            <c:v>(n-2)-Heap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.561999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321.084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>707.80899999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1358.9949999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0BC4-4D56-80F1-E40647EC95A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>O</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -202,69 +327,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$4:$M$4</c:f>
+              <c:f>Foglio1!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5000</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>1198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100000</c:v>
+                  <c:v>1398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$6:$J$6</c:f>
+              <c:f>Foglio1!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5620000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.515000000000001</c:v>
+                  <c:v>490000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,80 +394,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B02-4BCF-BC84-5B67D48C4D1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>O</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0B02-4BCF-BC84-5B67D48C4D1A}"/>
+              <c16:uniqueId val="{00000000-5FAD-4ECD-8D60-EDDF926EECC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -390,7 +439,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Numero nodi</a:t>
+                  <a:t>Numero nodi + numero archi</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -473,7 +522,741 @@
         <c:axId val="1557776736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="1500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo (secondi)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557777568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Caso Migliore (1-Heap)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> e caso Medio (Grafo randomizzato (*))</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Caso migliore</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2543-4BD0-9769-1A32E31E74D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Caso medio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>14.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>183.78299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>219.15700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.673000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>476.88499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2543-4BD0-9769-1A32E31E74D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>O</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>562500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2543-4BD0-9769-1A32E31E74D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1557777568"/>
+        <c:axId val="1557776736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1557777568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero nodi + numero archi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557776736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1557776736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -706,6 +1489,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1209,20 +2032,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>184096</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>184097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>155282</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>34418</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1238,6 +2564,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>728380</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1509,20 +2867,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1547,33 +2906,15 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>500</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>50000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10000</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
@@ -1600,178 +2941,316 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>500</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5000</v>
+      <c r="C4" s="1">
+        <f>(100*100)</f>
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
+        <f>(250*250)</f>
+        <v>62500</v>
+      </c>
+      <c r="E4" s="1">
+        <f>(500*500)</f>
+        <v>250000</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(750*750)</f>
+        <v>562500</v>
       </c>
       <c r="G4" s="1">
-        <v>20000</v>
+        <f>(1000*1000)</f>
+        <v>1000000</v>
       </c>
       <c r="H4" s="1">
-        <v>50000</v>
+        <f>(2000*2000)</f>
+        <v>4000000</v>
       </c>
       <c r="I4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <f>(3000*3000)</f>
+        <v>9000000</v>
+      </c>
+      <c r="J4" s="1">
+        <f>(4000*4000)</f>
+        <v>16000000</v>
+      </c>
+      <c r="K4" s="1">
+        <f>(5000*5000)</f>
+        <v>25000000</v>
+      </c>
+      <c r="L4" s="1">
+        <f>(6000*6000)</f>
+        <v>36000000</v>
+      </c>
+      <c r="M4" s="1">
+        <f>(7000*7000)</f>
+        <v>49000000</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="C5" s="2">
+        <f>(100+98)</f>
+        <v>198</v>
+      </c>
+      <c r="D5" s="2">
+        <f>(250+248)</f>
+        <v>498</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(500+498)</f>
+        <v>998</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(750+748)</f>
+        <v>1498</v>
+      </c>
+      <c r="G5" s="1">
+        <f>(1000+998)</f>
+        <v>1998</v>
+      </c>
+      <c r="H5" s="1">
+        <f>(2000+1998)</f>
+        <v>3998</v>
+      </c>
+      <c r="I5" s="1">
+        <f>(3000+2998)</f>
+        <v>5998</v>
+      </c>
+      <c r="J5" s="1">
+        <f>(4000+3998)</f>
+        <v>7998</v>
+      </c>
+      <c r="K5" s="1">
+        <f>(5000+4998)</f>
+        <v>9998</v>
+      </c>
+      <c r="L5" s="1">
+        <f>(6000+5998)</f>
+        <v>11998</v>
+      </c>
+      <c r="M5" s="1">
+        <f>(7000+6998)</f>
+        <v>13998</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5.5620000000000003</v>
-      </c>
-      <c r="J6" s="2">
-        <v>29.515000000000001</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>(100+98)</f>
+        <v>198</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(200+198)</f>
+        <v>398</v>
+      </c>
+      <c r="E7" s="1">
+        <f>(300+298)</f>
+        <v>598</v>
+      </c>
+      <c r="F7" s="1">
+        <f>(400+398)</f>
+        <v>798</v>
+      </c>
+      <c r="G7" s="2">
+        <f>(500+498)</f>
+        <v>998</v>
+      </c>
+      <c r="H7" s="3">
+        <f>(600+598)</f>
+        <v>1198</v>
+      </c>
+      <c r="I7" s="2">
+        <f>(700+698)</f>
+        <v>1398</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f>(100*100)</f>
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2">
+        <f>(200*200)</f>
+        <v>40000</v>
+      </c>
+      <c r="E8" s="2">
+        <f>(300*300)</f>
+        <v>90000</v>
+      </c>
+      <c r="F8" s="2">
+        <f>(400*400)</f>
+        <v>160000</v>
+      </c>
+      <c r="G8" s="2">
+        <f>(500*500)</f>
+        <v>250000</v>
+      </c>
+      <c r="H8" s="2">
+        <f>(600*600)</f>
+        <v>360000</v>
+      </c>
+      <c r="I8" s="2">
+        <f>(700*700)</f>
+        <v>490000</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14.686999999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>53.921999999999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>183.78299999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>219.15700000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <v>63.673000000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <v>476.88499999999999</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.312</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2.484</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3.39</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1783,32 +3262,38 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.2960000000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>34.561999999999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>119.298</v>
+      </c>
+      <c r="G13" s="2">
+        <v>321.084</v>
+      </c>
+      <c r="H13" s="2">
+        <v>707.80899999999997</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1358.9949999999999</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1854,12 +3339,12 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1925,223 +3410,331 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>0</v>
       </c>
-      <c r="C63">
+      <c r="C69">
         <v>0</v>
       </c>
-      <c r="D63">
+      <c r="D69">
         <v>0</v>
       </c>
-      <c r="E63">
+      <c r="E69">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F69">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G63">
+      <c r="G69">
         <v>0</v>
       </c>
-      <c r="H63">
+      <c r="H69">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I63">
+      <c r="I69">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J63">
+      <c r="J69">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K63">
+      <c r="K69">
         <v>7.8E-2</v>
       </c>
-      <c r="L63">
+      <c r="L69">
         <v>0.124</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>0</v>
       </c>
-      <c r="C64">
+      <c r="C70">
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="D70">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E70">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F70">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G64">
+      <c r="G70">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H64">
+      <c r="H70">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I64">
+      <c r="I70">
         <v>6.2E-2</v>
       </c>
-      <c r="J64">
+      <c r="J70">
         <v>7.8E-2</v>
       </c>
-      <c r="K64">
+      <c r="K70">
         <v>0.109</v>
       </c>
-      <c r="L64">
+      <c r="L70">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71">
         <v>0</v>
       </c>
-      <c r="C65">
+      <c r="C71">
         <v>0</v>
       </c>
-      <c r="D65">
+      <c r="D71">
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="E71">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F65">
+      <c r="F71">
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G71">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H65">
+      <c r="H71">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I65">
+      <c r="I71">
         <v>3.1E-2</v>
       </c>
-      <c r="J65">
+      <c r="J71">
         <v>7.8E-2</v>
       </c>
-      <c r="K65">
+      <c r="K71">
         <v>0.109</v>
       </c>
-      <c r="L65">
+      <c r="L71">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>0</v>
       </c>
-      <c r="C66">
+      <c r="C72">
         <v>0</v>
       </c>
-      <c r="D66">
+      <c r="D72">
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E72">
         <v>3.1E-2</v>
       </c>
-      <c r="F66">
+      <c r="F72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G66">
+      <c r="G72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H66">
+      <c r="H72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I66">
+      <c r="I72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J66">
+      <c r="J72">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K66">
+      <c r="K72">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="L66">
+      <c r="L72">
         <v>0.124</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>0</v>
       </c>
-      <c r="C67">
+      <c r="C73">
         <v>0</v>
       </c>
-      <c r="D67">
+      <c r="D73">
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="E73">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F67">
+      <c r="F73">
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="G73">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H67">
+      <c r="H73">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I67">
+      <c r="I73">
         <v>7.8E-2</v>
       </c>
-      <c r="J67">
+      <c r="J73">
         <v>6.2E-2</v>
       </c>
-      <c r="K67">
+      <c r="K73">
         <v>7.8E-2</v>
       </c>
-      <c r="L67">
+      <c r="L73">
         <v>0.124</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <f>(B63+B64+B65+B66+B67)/5</f>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f>(B69+B70+B71+B72+B73)/5</f>
         <v>0</v>
       </c>
-      <c r="C68">
-        <f t="shared" ref="C68:L68" si="0">(C63+C64+C65+C66+C67)/5</f>
+      <c r="C74">
+        <f t="shared" ref="C74:L74" si="0">(C69+C70+C71+C72+C73)/5</f>
         <v>0</v>
       </c>
-      <c r="D68">
+      <c r="D74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="E74">
         <f t="shared" si="0"/>
         <v>1.2199999999999999E-2</v>
       </c>
-      <c r="F68">
+      <c r="F74">
         <f t="shared" si="0"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G68">
+      <c r="G74">
         <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
-      <c r="H68">
+      <c r="H74">
         <f t="shared" si="0"/>
         <v>2.12E-2</v>
       </c>
-      <c r="I68">
+      <c r="I74">
         <f t="shared" si="0"/>
         <v>4.02E-2</v>
       </c>
-      <c r="J68">
+      <c r="J74">
         <f t="shared" si="0"/>
         <v>6.2E-2</v>
       </c>
-      <c r="K68">
+      <c r="K74">
         <f t="shared" si="0"/>
         <v>9.3400000000000011E-2</v>
       </c>
-      <c r="L68">
+      <c r="L74">
         <f t="shared" si="0"/>
         <v>0.13040000000000002</v>
       </c>

--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -224,10 +224,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$7:$I$7</c:f>
+              <c:f>Foglio1!$B$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -251,39 +251,57 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$13:$I$13</c:f>
+              <c:f>Foglio1!$B$13:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2960000000000003</c:v>
+                  <c:v>0.35899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.561999999999998</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>119.298</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>321.084</c:v>
+                  <c:v>3.8559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>707.80899999999997</c:v>
+                  <c:v>5.984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1358.9949999999999</c:v>
+                  <c:v>9.1869999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.126000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.861999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -327,10 +345,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$7:$I$7</c:f>
+              <c:f>Foglio1!$B$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -354,16 +372,25 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$8:$I$8</c:f>
+              <c:f>Foglio1!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -387,6 +414,15 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>810000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,7 +558,8 @@
         <c:axId val="1557776736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -836,37 +873,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>0.29099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
-                  <c:v>0.312</c:v>
+                  <c:v>0.60299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67100000000000004</c:v>
+                  <c:v>1.1839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.125</c:v>
+                  <c:v>1.613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7809999999999999</c:v>
+                  <c:v>2.234</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.484</c:v>
+                  <c:v>3.4529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.39</c:v>
+                  <c:v>6.109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -921,34 +958,34 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>498</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1498</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1998</c:v>
+                  <c:v>3998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3998</c:v>
+                  <c:v>5998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5998</c:v>
+                  <c:v>7998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7998</c:v>
+                  <c:v>9998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9998</c:v>
+                  <c:v>11998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11998</c:v>
+                  <c:v>14998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13998</c:v>
+                  <c:v>19998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,37 +1000,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.125</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56200000000000006</c:v>
+                  <c:v>0.39900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73399999999999999</c:v>
+                  <c:v>1.2889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3849999999999998</c:v>
+                  <c:v>11.579000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
-                  <c:v>14.686999999999999</c:v>
+                  <c:v>13.702999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.921999999999997</c:v>
+                  <c:v>18.559000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>183.78299999999999</c:v>
+                  <c:v>46.706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219.15700000000001</c:v>
+                  <c:v>155.00200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.673000000000002</c:v>
+                  <c:v>85.402000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>476.88499999999999</c:v>
+                  <c:v>640.25199999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,34 +1085,34 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>498</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1498</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1998</c:v>
+                  <c:v>3998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3998</c:v>
+                  <c:v>5998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5998</c:v>
+                  <c:v>7998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7998</c:v>
+                  <c:v>9998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9998</c:v>
+                  <c:v>11998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11998</c:v>
+                  <c:v>14998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13998</c:v>
+                  <c:v>19998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,34 +1130,34 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62500</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>562500</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4000000</c:v>
+                  <c:v>9000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9000000</c:v>
+                  <c:v>16000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16000000</c:v>
+                  <c:v>25000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25000000</c:v>
+                  <c:v>36000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36000000</c:v>
+                  <c:v>56250000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49000000</c:v>
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,44 +2989,44 @@
         <v>10000</v>
       </c>
       <c r="D4" s="1">
-        <f>(250*250)</f>
-        <v>62500</v>
+        <f>(200*200)</f>
+        <v>40000</v>
       </c>
       <c r="E4" s="1">
         <f>(500*500)</f>
         <v>250000</v>
       </c>
       <c r="F4" s="1">
-        <f>(750*750)</f>
-        <v>562500</v>
-      </c>
-      <c r="G4" s="1">
         <f>(1000*1000)</f>
         <v>1000000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="1">
         <f>(2000*2000)</f>
         <v>4000000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
         <f>(3000*3000)</f>
         <v>9000000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
         <f>(4000*4000)</f>
         <v>16000000</v>
       </c>
-      <c r="K4" s="1">
+      <c r="J4" s="1">
         <f>(5000*5000)</f>
         <v>25000000</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1">
         <f>(6000*6000)</f>
         <v>36000000</v>
       </c>
+      <c r="L4" s="1">
+        <f>(7500*7500)</f>
+        <v>56250000</v>
+      </c>
       <c r="M4" s="1">
-        <f>(7000*7000)</f>
-        <v>49000000</v>
+        <f>(10000*10000)</f>
+        <v>100000000</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3003,48 +3040,46 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <f>(100+98)</f>
         <v>198</v>
       </c>
       <c r="D5" s="2">
-        <f>(250+248)</f>
-        <v>498</v>
+        <v>398</v>
       </c>
       <c r="E5" s="2">
         <f>(500+498)</f>
         <v>998</v>
       </c>
       <c r="F5" s="2">
-        <f>(750+748)</f>
-        <v>1498</v>
-      </c>
-      <c r="G5" s="1">
         <f>(1000+998)</f>
         <v>1998</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
         <f>(2000+1998)</f>
         <v>3998</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
         <f>(3000+2998)</f>
         <v>5998</v>
       </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1">
         <f>(4000+3998)</f>
         <v>7998</v>
       </c>
-      <c r="K5" s="1">
+      <c r="J5" s="1">
         <f>(5000+4998)</f>
         <v>9998</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
         <f>(6000+5998)</f>
         <v>11998</v>
       </c>
+      <c r="L5" s="1">
+        <f>(7500+7498)</f>
+        <v>14998</v>
+      </c>
       <c r="M5" s="1">
-        <f>(7000+6998)</f>
-        <v>13998</v>
+        <f>(10000+9998)</f>
+        <v>19998</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -3103,9 +3138,18 @@
         <f>(700+698)</f>
         <v>1398</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="2">
+        <f>(800+798)</f>
+        <v>1598</v>
+      </c>
+      <c r="K7" s="2">
+        <f>(900+898)</f>
+        <v>1798</v>
+      </c>
+      <c r="L7" s="2">
+        <f>(1000+998)</f>
+        <v>1998</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3146,9 +3190,18 @@
         <f>(700*700)</f>
         <v>490000</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="2">
+        <f>(800*800)</f>
+        <v>640000</v>
+      </c>
+      <c r="K8" s="2">
+        <f>(900*900)</f>
+        <v>810000</v>
+      </c>
+      <c r="L8" s="2">
+        <f>(1000*1000)</f>
+        <v>1000000</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3162,37 +3215,37 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>3.1E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.125</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.56200000000000006</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="F9" s="1">
-        <v>0.73399999999999999</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="G9" s="2">
-        <v>3.3849999999999998</v>
+        <v>11.579000000000001</v>
       </c>
       <c r="H9" s="3">
-        <v>14.686999999999999</v>
+        <v>13.702999999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>53.921999999999997</v>
+        <v>18.559000000000001</v>
       </c>
       <c r="J9" s="2">
-        <v>183.78299999999999</v>
+        <v>46.706000000000003</v>
       </c>
       <c r="K9" s="2">
-        <v>219.15700000000001</v>
+        <v>155.00200000000001</v>
       </c>
       <c r="L9" s="2">
-        <v>63.673000000000002</v>
+        <v>85.402000000000001</v>
       </c>
       <c r="M9" s="2">
-        <v>476.88499999999999</v>
+        <v>640.25199999999995</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3206,37 +3259,37 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>7.8E-2</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H10" s="3">
-        <v>0.312</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I10" s="2">
-        <v>0.67100000000000004</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="J10" s="2">
-        <v>1.125</v>
+        <v>1.613</v>
       </c>
       <c r="K10" s="2">
-        <v>1.7809999999999999</v>
+        <v>2.234</v>
       </c>
       <c r="L10" s="2">
-        <v>2.484</v>
+        <v>3.4529999999999998</v>
       </c>
       <c r="M10" s="2">
-        <v>3.39</v>
+        <v>6.109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3274,29 +3327,35 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0.5</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>7.2960000000000003</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>34.561999999999998</v>
+        <v>0.999</v>
       </c>
       <c r="F13" s="2">
-        <v>119.298</v>
+        <v>2.36</v>
       </c>
       <c r="G13" s="2">
-        <v>321.084</v>
+        <v>3.8559999999999999</v>
       </c>
       <c r="H13" s="2">
-        <v>707.80899999999997</v>
+        <v>5.984</v>
       </c>
       <c r="I13" s="2">
-        <v>1358.9949999999999</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>9.1869999999999994</v>
+      </c>
+      <c r="J13" s="2">
+        <v>13.596</v>
+      </c>
+      <c r="K13" s="2">
+        <v>19.126000000000001</v>
+      </c>
+      <c r="L13" s="2">
+        <v>24.861999999999998</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>

--- a/2° Progetto in Itinere/Tempi + Grafici.xlsx
+++ b/2° Progetto in Itinere/Tempi + Grafici.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>casoMedio (Grafo Random)</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>(Peggiore)Quadrato</t>
+  </si>
+  <si>
+    <t>(500*0,006528)^2</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$7:$L$7</c:f>
+              <c:f>Foglio1!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -266,7 +269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$13:$L$13</c:f>
+              <c:f>Foglio1!$B$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -345,48 +348,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$7:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
-                  <c:v>1198</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1598</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1798</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Foglio1!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -395,34 +356,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40000</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90000</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160000</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250000</c:v>
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42614784000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7045913600000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8353305599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8183654400000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.653695999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>360000</c:v>
+                  <c:v>15.341322239999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>490000</c:v>
+                  <c:v>20.881244160000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>640000</c:v>
+                  <c:v>27.273461760000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>810000</c:v>
+                  <c:v>34.517975039999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1000000</c:v>
+                  <c:v>42.614783999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,7 +868,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$10:$M$10</c:f>
+              <c:f>Foglio1!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -947,7 +950,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$B$5:$M$5</c:f>
+              <c:f>Foglio1!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -992,7 +995,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$9:$M$9</c:f>
+              <c:f>Foglio1!$B$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1012,7 +1015,7 @@
                   <c:v>1.2889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.579000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0">
                   <c:v>13.702999999999999</c:v>
@@ -1074,6 +1077,51 @@
           </c:marker>
           <c:cat>
             <c:numRef>
+              <c:f>Foglio1!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Foglio1!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1082,82 +1130,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198</c:v>
+                  <c:v>0.42614784000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398</c:v>
+                  <c:v>1.7045913600000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>998</c:v>
+                  <c:v>10.653695999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1998</c:v>
+                  <c:v>42.614783999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3998</c:v>
+                  <c:v>170.45913599999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5998</c:v>
+                  <c:v>383.53305599999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7998</c:v>
+                  <c:v>681.83654399999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9998</c:v>
+                  <c:v>1065.3696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11998</c:v>
+                  <c:v>1534.132224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14998</c:v>
+                  <c:v>2397.0816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56250000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100000000</c:v>
+                  <c:v>4261.4784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,13 +2581,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>184097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2610,13 +2613,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>728380</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2904,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,414 +2981,476 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <f>(100*100)</f>
-        <v>10000</v>
-      </c>
-      <c r="D4" s="1">
-        <f>(200*200)</f>
-        <v>40000</v>
-      </c>
-      <c r="E4" s="1">
-        <f>(500*500)</f>
-        <v>250000</v>
-      </c>
-      <c r="F4" s="1">
-        <f>(1000*1000)</f>
-        <v>1000000</v>
-      </c>
-      <c r="G4" s="1">
-        <f>(2000*2000)</f>
-        <v>4000000</v>
-      </c>
-      <c r="H4" s="1">
-        <f>(3000*3000)</f>
-        <v>9000000</v>
-      </c>
-      <c r="I4" s="1">
-        <f>(4000*4000)</f>
-        <v>16000000</v>
-      </c>
-      <c r="J4" s="1">
-        <f>(5000*5000)</f>
-        <v>25000000</v>
-      </c>
-      <c r="K4" s="1">
-        <f>(6000*6000)</f>
-        <v>36000000</v>
-      </c>
-      <c r="L4" s="1">
-        <f>(7500*7500)</f>
-        <v>56250000</v>
-      </c>
-      <c r="M4" s="1">
-        <f>(10000*10000)</f>
-        <v>100000000</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>198</v>
-      </c>
-      <c r="D5" s="2">
-        <v>398</v>
-      </c>
-      <c r="E5" s="2">
-        <f>(500+498)</f>
-        <v>998</v>
-      </c>
-      <c r="F5" s="2">
-        <f>(1000+998)</f>
-        <v>1998</v>
+      <c r="C5" s="1">
+        <f>(0.006528*100)^2</f>
+        <v>0.42614784000000006</v>
+      </c>
+      <c r="D5" s="1">
+        <f>(0.006528*200)^2</f>
+        <v>1.7045913600000002</v>
+      </c>
+      <c r="E5" s="1">
+        <f>(0.006528*500)^2</f>
+        <v>10.653695999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(0.006528*1000)^2</f>
+        <v>42.614783999999993</v>
       </c>
       <c r="G5" s="1">
-        <f>(2000+1998)</f>
-        <v>3998</v>
+        <f>(0.006528*2000)^2</f>
+        <v>170.45913599999997</v>
       </c>
       <c r="H5" s="1">
-        <f>(3000+2998)</f>
-        <v>5998</v>
+        <f>(0.006528*3000)^2</f>
+        <v>383.53305599999999</v>
       </c>
       <c r="I5" s="1">
-        <f>(4000+3998)</f>
-        <v>7998</v>
+        <f>(0.006528*4000)^2</f>
+        <v>681.83654399999989</v>
       </c>
       <c r="J5" s="1">
-        <f>(5000+4998)</f>
-        <v>9998</v>
+        <f>(0.006528*5000)^2</f>
+        <v>1065.3696</v>
       </c>
       <c r="K5" s="1">
-        <f>(6000+5998)</f>
-        <v>11998</v>
+        <f>(0.006528*6000)^2</f>
+        <v>1534.132224</v>
       </c>
       <c r="L5" s="1">
-        <f>(7500+7498)</f>
-        <v>14998</v>
+        <f>(0.006528*7500)^2</f>
+        <v>2397.0816</v>
       </c>
       <c r="M5" s="1">
-        <f>(10000+9998)</f>
-        <v>19998</v>
+        <f>(0.006528*10000)^2</f>
+        <v>4261.4784</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>198</v>
+      </c>
+      <c r="D6" s="2">
+        <v>398</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(500+498)</f>
+        <v>998</v>
+      </c>
+      <c r="F6" s="2">
+        <f>(1000+998)</f>
+        <v>1998</v>
+      </c>
+      <c r="G6" s="1">
+        <f>(2000+1998)</f>
+        <v>3998</v>
+      </c>
+      <c r="H6" s="1">
+        <f>(3000+2998)</f>
+        <v>5998</v>
+      </c>
+      <c r="I6" s="1">
+        <f>(4000+3998)</f>
+        <v>7998</v>
+      </c>
+      <c r="J6" s="1">
+        <f>(5000+4998)</f>
+        <v>9998</v>
+      </c>
+      <c r="K6" s="1">
+        <f>(6000+5998)</f>
+        <v>11998</v>
+      </c>
+      <c r="L6" s="1">
+        <f>(7500+7498)</f>
+        <v>14998</v>
+      </c>
+      <c r="M6" s="1">
+        <f>(10000+9998)</f>
+        <v>19998</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <f>(100+98)</f>
-        <v>198</v>
-      </c>
-      <c r="D7" s="1">
-        <f>(200+198)</f>
-        <v>398</v>
-      </c>
-      <c r="E7" s="1">
-        <f>(300+298)</f>
-        <v>598</v>
-      </c>
-      <c r="F7" s="1">
-        <f>(400+398)</f>
-        <v>798</v>
-      </c>
-      <c r="G7" s="2">
-        <f>(500+498)</f>
-        <v>998</v>
-      </c>
-      <c r="H7" s="3">
-        <f>(600+598)</f>
-        <v>1198</v>
-      </c>
-      <c r="I7" s="2">
-        <f>(700+698)</f>
-        <v>1398</v>
-      </c>
-      <c r="J7" s="2">
-        <f>(800+798)</f>
-        <v>1598</v>
-      </c>
-      <c r="K7" s="2">
-        <f>(900+898)</f>
-        <v>1798</v>
-      </c>
-      <c r="L7" s="2">
-        <f>(1000+998)</f>
-        <v>1998</v>
-      </c>
-      <c r="M7" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <f>(100*100)</f>
-        <v>10000</v>
-      </c>
-      <c r="D8" s="2">
-        <f>(200*200)</f>
-        <v>40000</v>
-      </c>
-      <c r="E8" s="2">
-        <f>(300*300)</f>
-        <v>90000</v>
-      </c>
-      <c r="F8" s="2">
-        <f>(400*400)</f>
-        <v>160000</v>
+      <c r="C8" s="1">
+        <f>(100+98)</f>
+        <v>198</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(200+198)</f>
+        <v>398</v>
+      </c>
+      <c r="E8" s="1">
+        <f>(300+298)</f>
+        <v>598</v>
+      </c>
+      <c r="F8" s="1">
+        <f>(400+398)</f>
+        <v>798</v>
       </c>
       <c r="G8" s="2">
-        <f>(500*500)</f>
-        <v>250000</v>
-      </c>
-      <c r="H8" s="2">
-        <f>(600*600)</f>
-        <v>360000</v>
+        <f>(500+498)</f>
+        <v>998</v>
+      </c>
+      <c r="H8" s="3">
+        <f>(600+598)</f>
+        <v>1198</v>
       </c>
       <c r="I8" s="2">
-        <f>(700*700)</f>
-        <v>490000</v>
+        <f>(700+698)</f>
+        <v>1398</v>
       </c>
       <c r="J8" s="2">
-        <f>(800*800)</f>
-        <v>640000</v>
+        <f>(800+798)</f>
+        <v>1598</v>
       </c>
       <c r="K8" s="2">
-        <f>(900*900)</f>
-        <v>810000</v>
+        <f>(900+898)</f>
+        <v>1798</v>
       </c>
       <c r="L8" s="2">
-        <f>(1000*1000)</f>
-        <v>1000000</v>
+        <f>(1000+998)</f>
+        <v>1998</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1">
+        <v>6.5280863304773024E-3</v>
+      </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.2889999999999999</v>
+      <c r="C9" s="2">
+        <f>(0.006528*100)^2</f>
+        <v>0.42614784000000006</v>
+      </c>
+      <c r="D9" s="2">
+        <f>(0.006528*200)^2</f>
+        <v>1.7045913600000002</v>
+      </c>
+      <c r="E9" s="2">
+        <f>(0.006528*300)^2</f>
+        <v>3.8353305599999996</v>
+      </c>
+      <c r="F9" s="2">
+        <f>(0.006528*400)^2</f>
+        <v>6.8183654400000009</v>
       </c>
       <c r="G9" s="2">
-        <v>11.579000000000001</v>
-      </c>
-      <c r="H9" s="3">
-        <v>13.702999999999999</v>
+        <f>(0.006528*500)^2</f>
+        <v>10.653695999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <f>(0.006528*600)^2</f>
+        <v>15.341322239999998</v>
       </c>
       <c r="I9" s="2">
-        <v>18.559000000000001</v>
+        <f>(0.006528*700)^2</f>
+        <v>20.881244160000001</v>
       </c>
       <c r="J9" s="2">
-        <v>46.706000000000003</v>
+        <f>(0.006528*800)^2</f>
+        <v>27.273461760000004</v>
       </c>
       <c r="K9" s="2">
-        <v>155.00200000000001</v>
+        <f>(0.006528*900)^2</f>
+        <v>34.517975039999996</v>
       </c>
       <c r="L9" s="2">
-        <v>85.402000000000001</v>
-      </c>
-      <c r="M9" s="2">
-        <v>640.25199999999995</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+        <f>(0.006528*1000)^2</f>
+        <v>42.614783999999993</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
+        <v>6.5280863304773024E-3</v>
+      </c>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>2E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="F10" s="1">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.29099999999999998</v>
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H10" s="3">
-        <v>0.60299999999999998</v>
+        <v>13.702999999999999</v>
       </c>
       <c r="I10" s="2">
-        <v>1.1839999999999999</v>
+        <v>18.559000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>1.613</v>
+        <v>46.706000000000003</v>
       </c>
       <c r="K10" s="2">
-        <v>2.234</v>
+        <v>155.00200000000001</v>
       </c>
       <c r="L10" s="2">
-        <v>3.4529999999999998</v>
+        <v>85.402000000000001</v>
       </c>
       <c r="M10" s="2">
-        <v>6.109</v>
+        <v>640.25199999999995</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="1">
+        <v>6.5280863304773024E-3</v>
+      </c>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.613</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.234</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="M11" s="2">
+        <v>6.109</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="1">
+        <v>6.5280863304773024E-3</v>
+      </c>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="1">
+        <v>6.5280863304773024E-3</v>
+      </c>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.999</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2.36</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3.8559999999999999</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5.984</v>
-      </c>
-      <c r="I13" s="2">
-        <v>9.1869999999999994</v>
-      </c>
-      <c r="J13" s="2">
-        <v>13.596</v>
-      </c>
-      <c r="K13" s="2">
-        <v>19.126000000000001</v>
-      </c>
-      <c r="L13" s="2">
-        <v>24.861999999999998</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="A13" s="2"/>
+      <c r="B13" t="e">
+        <f>(B14/B8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:L13" si="0">(C14/C8)</f>
+        <v>3.1313131313131311E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>9.0201005025125625E-4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.6705685618729096E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.9573934837092732E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3.8637274549098194E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>4.9949916527545907E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>6.5715307582260366E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>8.5081351689612009E-3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1.0637374860956618E-2</v>
+      </c>
+      <c r="L13">
+        <f>(L14/1000)</f>
+        <v>2.4861999999999999E-2</v>
+      </c>
+      <c r="M13">
+        <f>(C13+D13+E13+F13+G13+H13+I13+J13+K13+L13)/10</f>
+        <v>6.5280863304773024E-3</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="1">
+        <v>6.5280863304773024E-3</v>
+      </c>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5.984</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9.1869999999999994</v>
+      </c>
+      <c r="J14" s="2">
+        <v>13.596</v>
+      </c>
+      <c r="K14" s="2">
+        <v>19.126000000000001</v>
+      </c>
+      <c r="L14" s="2">
+        <v>24.861999999999998</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="1">
+        <v>6.5280863304773024E-3</v>
+      </c>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -3416,12 +3481,12 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3488,12 +3553,12 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3506,12 +3571,12 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -3577,40 +3642,23 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I69">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J69">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="K69">
-        <v>7.8E-2</v>
-      </c>
-      <c r="L69">
-        <v>0.124</v>
-      </c>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70">
@@ -3629,22 +3677,22 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G70">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I70">
-        <v>6.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J70">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K70">
         <v>7.8E-2</v>
       </c>
-      <c r="K70">
-        <v>0.109</v>
-      </c>
       <c r="L70">
-        <v>0.14000000000000001</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -3658,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
       </c>
       <c r="G71">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H71">
-        <v>4.5999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I71">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J71">
         <v>7.8E-2</v>
@@ -3693,28 +3741,28 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>3.1E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F72">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H72">
-        <v>1.4999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="I72">
-        <v>1.4999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J72">
-        <v>4.5999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="K72">
-        <v>9.2999999999999999E-2</v>
+        <v>0.109</v>
       </c>
       <c r="L72">
-        <v>0.124</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -3728,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="E73">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F73">
         <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
       </c>
       <c r="G73">
         <v>1.4999999999999999E-2</v>
@@ -3740,13 +3788,13 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I73">
-        <v>7.8E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J73">
-        <v>6.2E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="K73">
-        <v>7.8E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="L73">
         <v>0.124</v>
@@ -3754,47 +3802,82 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74">
-        <f>(B69+B70+B71+B72+B73)/5</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:L74" si="0">(C69+C70+C71+C72+C73)/5</f>
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I74">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J74">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K74">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L74">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>(B70+B71+B72+B73+B74)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:L75" si="1">(C70+C71+C72+C73+C74)/5</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
         <v>1.2199999999999999E-2</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="0"/>
+      <c r="F75">
+        <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="0"/>
+      <c r="G75">
+        <f t="shared" si="1"/>
         <v>1.2E-2</v>
       </c>
-      <c r="H74">
-        <f t="shared" si="0"/>
+      <c r="H75">
+        <f t="shared" si="1"/>
         <v>2.12E-2</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="0"/>
+      <c r="I75">
+        <f t="shared" si="1"/>
         <v>4.02E-2</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="0"/>
+      <c r="J75">
+        <f t="shared" si="1"/>
         <v>6.2E-2</v>
       </c>
-      <c r="K74">
-        <f t="shared" si="0"/>
+      <c r="K75">
+        <f t="shared" si="1"/>
         <v>9.3400000000000011E-2</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="0"/>
+      <c r="L75">
+        <f t="shared" si="1"/>
         <v>0.13040000000000002</v>
       </c>
     </row>
